--- a/src/main/resources/templates/welding-journals.xlsx
+++ b/src/main/resources/templates/welding-journals.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="164">
   <si>
     <t xml:space="preserve">ТОВ "ССМ ЗАВОД"</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">ТОВ «Варіант Агро Буд»</t>
   </si>
   <si>
-    <t xml:space="preserve">1САИН.3045.5201.100 СБ</t>
+    <t xml:space="preserve">САИН.3045.5201.100 СБ</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -521,7 +521,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -646,7 +646,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -711,18 +711,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -769,43 +761,44 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G:G"/>
+      <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -954,21 +947,21 @@
       <c r="D6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="16" t="n">
         <v>43892</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="16" t="n">
         <v>43921</v>
       </c>
       <c r="L6" s="14"/>
@@ -987,21 +980,21 @@
       <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="16" t="n">
         <v>43892</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="16" t="n">
         <v>43903</v>
       </c>
       <c r="L7" s="14"/>
@@ -1011,7 +1004,7 @@
       <c r="A8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1020,58 +1013,58 @@
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="16" t="n">
         <v>43863</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="16" t="n">
         <v>43887</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" s="23" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="21" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="16" t="n">
         <v>43922</v>
       </c>
-      <c r="K9" s="17" t="n">
+      <c r="K9" s="16" t="n">
         <v>43972</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <v>5</v>
       </c>
@@ -1081,24 +1074,24 @@
       <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="16" t="n">
         <v>43922</v>
       </c>
-      <c r="K10" s="17" t="n">
+      <c r="K10" s="16" t="n">
         <v>43931</v>
       </c>
       <c r="L10" s="14"/>
@@ -1114,24 +1107,24 @@
       <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="16" t="n">
         <v>44105</v>
       </c>
-      <c r="K11" s="17" t="n">
+      <c r="K11" s="16" t="n">
         <v>44106</v>
       </c>
       <c r="L11" s="14"/>
@@ -1161,10 +1154,10 @@
       <c r="I12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="17" t="n">
+      <c r="J12" s="16" t="n">
         <v>43877</v>
       </c>
-      <c r="K12" s="17" t="n">
+      <c r="K12" s="16" t="n">
         <v>43931</v>
       </c>
       <c r="L12" s="14"/>
@@ -1182,7 +1175,7 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="15" t="s">
@@ -1192,10 +1185,10 @@
       <c r="I13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="17" t="n">
+      <c r="J13" s="16" t="n">
         <v>43944</v>
       </c>
-      <c r="K13" s="17" t="n">
+      <c r="K13" s="16" t="n">
         <v>43947</v>
       </c>
       <c r="L13" s="14"/>
@@ -1205,30 +1198,30 @@
       <c r="A14" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="17" t="n">
+      <c r="J14" s="16" t="n">
         <v>43923</v>
       </c>
-      <c r="K14" s="17" t="n">
+      <c r="K14" s="16" t="n">
         <v>43937</v>
       </c>
       <c r="L14" s="14"/>
@@ -1238,10 +1231,10 @@
       <c r="A15" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1251,17 +1244,17 @@
       <c r="F15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="J15" s="16" t="n">
         <v>43938</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="K15" s="16" t="n">
         <v>43943</v>
       </c>
       <c r="L15" s="14"/>
@@ -1284,17 +1277,17 @@
       <c r="F16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="17" t="n">
+      <c r="J16" s="16" t="n">
         <v>43993</v>
       </c>
-      <c r="K16" s="17" t="n">
+      <c r="K16" s="16" t="n">
         <v>44004</v>
       </c>
       <c r="L16" s="14"/>
@@ -1317,7 +1310,7 @@
       <c r="F17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H17" s="14"/>
@@ -1327,7 +1320,7 @@
       <c r="J17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="17" t="n">
+      <c r="K17" s="16" t="n">
         <v>44004</v>
       </c>
       <c r="L17" s="14"/>
@@ -1343,14 +1336,14 @@
       <c r="C18" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>64</v>
       </c>
       <c r="H18" s="14"/>
@@ -1358,7 +1351,7 @@
       <c r="J18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="17" t="n">
+      <c r="K18" s="16" t="n">
         <v>44020</v>
       </c>
       <c r="L18" s="14"/>
@@ -1368,20 +1361,20 @@
       <c r="A19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H19" s="14"/>
@@ -1413,10 +1406,10 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="17" t="n">
+      <c r="J20" s="16" t="n">
         <v>44014</v>
       </c>
-      <c r="K20" s="17" t="n">
+      <c r="K20" s="16" t="n">
         <v>44056</v>
       </c>
       <c r="L20" s="14"/>
@@ -1432,11 +1425,11 @@
       <c r="C21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -1446,10 +1439,10 @@
       <c r="I21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="17" t="n">
+      <c r="J21" s="16" t="n">
         <v>44056</v>
       </c>
-      <c r="K21" s="17" t="n">
+      <c r="K21" s="16" t="n">
         <v>44064</v>
       </c>
       <c r="L21" s="14"/>
@@ -1465,7 +1458,7 @@
       <c r="C22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
         <v>19</v>
@@ -1477,10 +1470,10 @@
       <c r="I22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="17" t="n">
+      <c r="J22" s="16" t="n">
         <v>44032</v>
       </c>
-      <c r="K22" s="17" t="n">
+      <c r="K22" s="16" t="n">
         <v>44089</v>
       </c>
       <c r="L22" s="14"/>
@@ -1490,30 +1483,30 @@
       <c r="A23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="17" t="n">
+      <c r="J23" s="16" t="n">
         <v>44013</v>
       </c>
-      <c r="K23" s="17" t="n">
+      <c r="K23" s="16" t="n">
         <v>44020</v>
       </c>
       <c r="L23" s="14"/>
@@ -1523,30 +1516,30 @@
       <c r="A24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>46</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="17" t="n">
+      <c r="J24" s="16" t="n">
         <v>43994</v>
       </c>
-      <c r="K24" s="17" t="n">
+      <c r="K24" s="16" t="n">
         <v>44008</v>
       </c>
       <c r="L24" s="14"/>
@@ -1559,27 +1552,27 @@
       <c r="B25" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>86</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="17" t="n">
+      <c r="J25" s="16" t="n">
         <v>44046</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="K25" s="16" t="n">
         <v>44047</v>
       </c>
       <c r="L25" s="14"/>
@@ -1592,27 +1585,27 @@
       <c r="B26" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="24" t="s">
         <v>86</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="17" t="n">
+      <c r="J26" s="16" t="n">
         <v>44047</v>
       </c>
-      <c r="K26" s="17" t="n">
+      <c r="K26" s="16" t="n">
         <v>44060</v>
       </c>
       <c r="L26" s="14"/>
@@ -1625,27 +1618,27 @@
       <c r="B27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>91</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="17" t="n">
+      <c r="J27" s="16" t="n">
         <v>44075</v>
       </c>
-      <c r="K27" s="17" t="n">
+      <c r="K27" s="16" t="n">
         <v>44085</v>
       </c>
       <c r="L27" s="14"/>
@@ -1658,27 +1651,27 @@
       <c r="B28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>91</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="17" t="n">
+      <c r="J28" s="16" t="n">
         <v>44107</v>
       </c>
-      <c r="K28" s="17" t="n">
+      <c r="K28" s="16" t="n">
         <v>44120</v>
       </c>
       <c r="L28" s="14"/>
@@ -1691,25 +1684,25 @@
       <c r="B29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="14"/>
-      <c r="F29" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="F29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
@@ -1737,10 +1730,10 @@
       <c r="I30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="17" t="n">
+      <c r="J30" s="16" t="n">
         <v>44075</v>
       </c>
-      <c r="K30" s="17" t="n">
+      <c r="K30" s="16" t="n">
         <v>44086</v>
       </c>
       <c r="L30" s="14"/>
@@ -1750,30 +1743,30 @@
       <c r="A31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28" t="s">
+      <c r="H31" s="25"/>
+      <c r="I31" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="17" t="n">
+      <c r="J31" s="16" t="n">
         <v>44075</v>
       </c>
-      <c r="K31" s="17" t="n">
+      <c r="K31" s="16" t="n">
         <v>44079</v>
       </c>
       <c r="L31" s="14"/>
@@ -1793,7 +1786,7 @@
         <v>109</v>
       </c>
       <c r="E32" s="14"/>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -1803,10 +1796,10 @@
       <c r="I32" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="17" t="n">
+      <c r="J32" s="16" t="n">
         <v>44105</v>
       </c>
-      <c r="K32" s="17" t="n">
+      <c r="K32" s="16" t="n">
         <v>44112</v>
       </c>
       <c r="L32" s="14"/>
@@ -1819,27 +1812,27 @@
       <c r="B33" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="24" t="s">
         <v>113</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="17" t="n">
+      <c r="J33" s="16" t="n">
         <v>44120</v>
       </c>
-      <c r="K33" s="17" t="n">
+      <c r="K33" s="16" t="n">
         <v>44121</v>
       </c>
       <c r="L33" s="14"/>
@@ -1869,41 +1862,43 @@
       <c r="I34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="17" t="n">
+      <c r="J34" s="16" t="n">
         <v>44105</v>
       </c>
-      <c r="K34" s="17" t="n">
+      <c r="K34" s="16" t="n">
         <v>44109</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="26"/>
+      <c r="F35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H35" s="14"/>
       <c r="I35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="17" t="n">
+      <c r="J35" s="16" t="n">
         <v>44140</v>
       </c>
-      <c r="K35" s="17" t="n">
+      <c r="K35" s="16" t="n">
         <v>44145</v>
       </c>
       <c r="L35" s="14"/>
@@ -1916,14 +1911,14 @@
       <c r="B36" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="15" t="s">
@@ -1933,10 +1928,10 @@
       <c r="I36" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="17" t="n">
+      <c r="J36" s="16" t="n">
         <v>44119</v>
       </c>
-      <c r="K36" s="17" t="n">
+      <c r="K36" s="16" t="n">
         <v>44151</v>
       </c>
       <c r="L36" s="14"/>
@@ -1949,14 +1944,14 @@
       <c r="B37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="15" t="s">
@@ -1966,10 +1961,10 @@
       <c r="I37" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="17" t="n">
+      <c r="J37" s="16" t="n">
         <v>44123</v>
       </c>
-      <c r="K37" s="17" t="n">
+      <c r="K37" s="16" t="n">
         <v>44124</v>
       </c>
       <c r="L37" s="14"/>
@@ -1982,14 +1977,14 @@
       <c r="B38" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -1999,10 +1994,10 @@
       <c r="I38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="17" t="n">
+      <c r="J38" s="16" t="n">
         <v>44124</v>
       </c>
-      <c r="K38" s="17" t="n">
+      <c r="K38" s="16" t="n">
         <v>44124</v>
       </c>
       <c r="L38" s="14"/>
@@ -2018,7 +2013,7 @@
       <c r="C39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
         <v>19</v>
@@ -2030,8 +2025,8 @@
       <c r="I39" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
@@ -2059,10 +2054,10 @@
       <c r="I40" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="17" t="n">
+      <c r="J40" s="16" t="n">
         <v>44137</v>
       </c>
-      <c r="K40" s="17" t="n">
+      <c r="K40" s="16" t="n">
         <v>44141</v>
       </c>
       <c r="L40" s="14"/>
@@ -2090,10 +2085,10 @@
       <c r="I41" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J41" s="17" t="n">
+      <c r="J41" s="16" t="n">
         <v>44137</v>
       </c>
-      <c r="K41" s="17" t="n">
+      <c r="K41" s="16" t="n">
         <v>44148</v>
       </c>
       <c r="L41" s="14"/>
@@ -2123,10 +2118,10 @@
       <c r="I42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="17" t="n">
+      <c r="J42" s="16" t="n">
         <v>44151</v>
       </c>
-      <c r="K42" s="17" t="n">
+      <c r="K42" s="16" t="n">
         <v>44154</v>
       </c>
       <c r="L42" s="14"/>
@@ -2139,7 +2134,7 @@
       <c r="B43" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="27" t="s">
         <v>144</v>
       </c>
       <c r="D43" s="14" t="s">

--- a/src/main/resources/templates/welding-journals.xlsx
+++ b/src/main/resources/templates/welding-journals.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Щитовая</t>
   </si>
   <si>
-    <t xml:space="preserve">27/4-1-КМД- БЯЗ</t>
+    <t xml:space="preserve">27/4-1-КМД-БЯЗ</t>
   </si>
   <si>
     <t xml:space="preserve">20</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">S7</t>
   </si>
   <si>
-    <t xml:space="preserve">SSM 20033-КМД</t>
+    <t xml:space="preserve">SSM-20033-КМД</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
@@ -521,7 +521,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -761,30 +761,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
@@ -795,10 +795,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/main/resources/templates/welding-journals.xlsx
+++ b/src/main/resources/templates/welding-journals.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" refMode="R1C1" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="164">
-  <si>
-    <t xml:space="preserve">ТОВ "ССМ ЗАВОД"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
+  <si>
+    <t>ТОВ "ССМ ЗАВОД"</t>
   </si>
   <si>
     <t xml:space="preserve">Ведомость № 1 </t>
@@ -31,139 +30,139 @@
     <t xml:space="preserve"> журналов учета сварочных работ </t>
   </si>
   <si>
-    <t xml:space="preserve">№ журналу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Об'єкт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адреса об'єкту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замовник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ і дата контракту на виготовлення</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Розробник проекту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шифр проектної документації</t>
-  </si>
-  <si>
-    <t xml:space="preserve">№ і дата контракту на проектування</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архівний № КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата початку виконання робіт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата закінчення робіт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Відмітки про зміни в КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Срок хранения журнала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склад зберігання комплектуючих</t>
-  </si>
-  <si>
-    <t xml:space="preserve">м. Синельникове Дніпропетровської обл.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАТ "АЛЕФ-ВИНАЛЬ"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОП Коротких Анатолій Володимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКМ-19034-КМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Металеві конструкції каркасу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">м. Київ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "МетТорг"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКМ-20010-КМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">м. Кременчук</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "ХЕЛІТРЕЙНІНГ УКРАЇНА"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "ССМ ХХІ"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1-20-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реконструкція зерноочищувальної лінії (Дакота 688). Бункери для відходів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фермерське господарство «Агротрейд 2006»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ «ССМ ХХI»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/07-1-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Несучі конструкції</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Харьков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ «Варіант Агро Буд»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САИН.3045.5201.100 СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САИН.3044.5201.410 СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссладські та офісні приміщення</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК 20007-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Реконструкція споруд елеватора ПП"Альфа-Капітал" в с. Божково, Полтавського р-ну, Полтавської обл.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Божково Полтавської обл.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
+    <t>№ журналу</t>
+  </si>
+  <si>
+    <t>Об'єкт</t>
+  </si>
+  <si>
+    <t>Адреса об'єкту</t>
+  </si>
+  <si>
+    <t>Замовник</t>
+  </si>
+  <si>
+    <t>№ і дата контракту на виготовлення</t>
+  </si>
+  <si>
+    <t>Розробник проекту</t>
+  </si>
+  <si>
+    <t>Шифр проектної документації</t>
+  </si>
+  <si>
+    <t>№ і дата контракту на проектування</t>
+  </si>
+  <si>
+    <t>Архівний № КМД</t>
+  </si>
+  <si>
+    <t>Дата початку виконання робіт</t>
+  </si>
+  <si>
+    <t>Дата закінчення робіт</t>
+  </si>
+  <si>
+    <t>Відмітки про зміни в КМД</t>
+  </si>
+  <si>
+    <t>Срок хранения журнала</t>
+  </si>
+  <si>
+    <t>Склад зберігання комплектуючих</t>
+  </si>
+  <si>
+    <t>м. Синельникове Дніпропетровської обл.</t>
+  </si>
+  <si>
+    <t>ПАТ "АЛЕФ-ВИНАЛЬ"</t>
+  </si>
+  <si>
+    <t>ФОП Коротких Анатолій Володимирович</t>
+  </si>
+  <si>
+    <t>СКМ-19034-КМ</t>
+  </si>
+  <si>
+    <t>Металеві конструкції каркасу</t>
+  </si>
+  <si>
+    <t>м. Київ</t>
+  </si>
+  <si>
+    <t>ТОВ "МетТорг"</t>
+  </si>
+  <si>
+    <t>СКМ-20010-КМ</t>
+  </si>
+  <si>
+    <t>м. Кременчук</t>
+  </si>
+  <si>
+    <t>ТОВ "ХЕЛІТРЕЙНІНГ УКРАЇНА"</t>
+  </si>
+  <si>
+    <t>ТОВ "ССМ ХХІ"</t>
+  </si>
+  <si>
+    <t>10/1-20-КМД</t>
+  </si>
+  <si>
+    <t>Реконструкція зерноочищувальної лінії (Дакота 688). Бункери для відходів</t>
+  </si>
+  <si>
+    <t>Фермерське господарство «Агротрейд 2006»</t>
+  </si>
+  <si>
+    <t>ТОВ «ССМ ХХI»</t>
+  </si>
+  <si>
+    <t>10/07-1-КМД</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Несучі конструкції</t>
+  </si>
+  <si>
+    <t>г. Харьков</t>
+  </si>
+  <si>
+    <t>ТОВ «Варіант Агро Буд»</t>
+  </si>
+  <si>
+    <t>САИН.3045.5201.100 СБ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5/1</t>
+  </si>
+  <si>
+    <t>САИН.3044.5201.410 СБ</t>
+  </si>
+  <si>
+    <t>Ссладські та офісні приміщення</t>
+  </si>
+  <si>
+    <t>СМК 20007-КМД</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Реконструкція споруд елеватора ПП"Альфа-Капітал" в с. Божково, Полтавського р-ну, Полтавської обл.</t>
+  </si>
+  <si>
+    <t>с. Божково Полтавської обл.</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">"Норійна башта»  (НОБ 1 ярус) </t>
@@ -172,358 +171,452 @@
     <t xml:space="preserve"> с. Божково, Полтавського району</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Магазин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дніпропетрівска обл., м. Синельниково, вул. Садова, 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20019-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Норійна вежа зблоком очистки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Харківська обл. Валківський р-н, с. Ков'яги, вул. Заводська, 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "СБК-ГРУП"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20021-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03.05.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Завальная яма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.05.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>Дніпропетрівска обл., м. Синельниково, вул. Садова, 10</t>
+  </si>
+  <si>
+    <t>СМК-20019-КМД</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10/1</t>
+  </si>
+  <si>
+    <t>Норійна вежа зблоком очистки</t>
+  </si>
+  <si>
+    <t>Харківська обл. Валківський р-н, с. Ков'яги, вул. Заводська, 11</t>
+  </si>
+  <si>
+    <t>ТОВ "СБК-ГРУП"</t>
+  </si>
+  <si>
+    <t>СМК-20021-КМД</t>
+  </si>
+  <si>
+    <t>10/2</t>
+  </si>
+  <si>
+    <t>03.05.2020</t>
+  </si>
+  <si>
+    <t>10/3</t>
+  </si>
+  <si>
+    <t>Завальная яма</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД-01</t>
+  </si>
+  <si>
+    <t>25.05.2020</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">"Норійна башта»  (НОБ 2 ярус) </t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Убойный цех"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Борки Змиевского р-на, Харьковской обл.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM 20022-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Комплекс офісно-складських приміщень</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Котляревська сільська рада Харківського району Харківської області</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411/2017-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коровник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Бахмут</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20029-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>"Убойный цех"</t>
+  </si>
+  <si>
+    <t>с. Борки Змиевского р-на, Харьковской обл.</t>
+  </si>
+  <si>
+    <t>SSM 20022-КМД</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>"Комплекс офісно-складських приміщень</t>
+  </si>
+  <si>
+    <t>Котляревська сільська рада Харківського району Харківської області</t>
+  </si>
+  <si>
+    <t>411/2017-КМД</t>
+  </si>
+  <si>
+    <t>13/1</t>
+  </si>
+  <si>
+    <t>Коровник</t>
+  </si>
+  <si>
+    <t>г.Бахмут</t>
+  </si>
+  <si>
+    <t>СМК-20029-КМД</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve">"Норійна башта»  (НОБ 3 ярус) </t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
+    <t>15</t>
   </si>
   <si>
     <t xml:space="preserve">"Норійна башта»  (НОБ Бункер) </t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Галерея № 3 и № 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМ2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Галерея № 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Терминал железнодорожній</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КВАТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Щитовая</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД-БЯЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Будівництво складу м Київ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВИТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-20 КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пристройка к производственному цеху в муниципии Кишинеу  на улице Мунчешть 801  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">м. Кишинев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRL "DJOFRA-M"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20034-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Входная группа. Конструкции лифтовой шахты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г. Киев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО "УправляющаяКомпания "ПАТОН ГРУПП"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08/09/2020-1-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоприем №1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Убойный цех". Пристройка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM 20022-КМД4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖД приемка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Норийно-очистная башня. Бункер накопления отходов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМД10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоприем №1. Навес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/4-1-КМ9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автоприем №1. АП-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20036-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">с. Кияшки, Полтавской обл.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альянс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20014-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисно-складской комплекс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Днепропетровская обл. с. Чумаки, ул.Центральная,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20024-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">мун. Кишинеу, р-н Ботаника, ш. Мунчешть, 801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSM-20033-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ремонтная мастерская</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Галерея № 3 и № 4</t>
+  </si>
+  <si>
+    <t>27/4-1-КМ2</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Галерея № 1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Терминал железнодорожній</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД4</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>КВАТ</t>
+  </si>
+  <si>
+    <t>19/1</t>
+  </si>
+  <si>
+    <t>Щитовая</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД-БЯЗ</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Будівництво складу м Київ</t>
+  </si>
+  <si>
+    <t>ВИТОН</t>
+  </si>
+  <si>
+    <t>2008-20 КМД</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Пристройка к производственному цеху в муниципии Кишинеу  на улице Мунчешть 801  </t>
+  </si>
+  <si>
+    <t>м. Кишинев</t>
+  </si>
+  <si>
+    <t>SRL "DJOFRA-M"</t>
+  </si>
+  <si>
+    <t>СМК-20034-КМД</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Входная группа. Конструкции лифтовой шахты</t>
+  </si>
+  <si>
+    <t>г. Киев</t>
+  </si>
+  <si>
+    <t>ООО "УправляющаяКомпания "ПАТОН ГРУПП"</t>
+  </si>
+  <si>
+    <t>08/09/2020-1-КМД</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Автоприем №1</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД9</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>"Убойный цех". Пристройка</t>
+  </si>
+  <si>
+    <t>SSM 20022-КМД4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ЖД приемка</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Норийно-очистная башня. Бункер накопления отходов</t>
+  </si>
+  <si>
+    <t>27/4-1-КМД10</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Автоприем №1. Навес</t>
+  </si>
+  <si>
+    <t>27/4-1-КМ9.2</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Автоприем №1. АП-2</t>
+  </si>
+  <si>
+    <t>28/1</t>
+  </si>
+  <si>
+    <t>СМК-20036-КМД</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>с. Кияшки, Полтавской обл.</t>
+  </si>
+  <si>
+    <t>Альянс</t>
+  </si>
+  <si>
+    <t>СМК-20014-КМД</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Офисно-складской комплекс</t>
+  </si>
+  <si>
+    <t>Днепропетровская обл. с. Чумаки, ул.Центральная,1</t>
+  </si>
+  <si>
+    <t>СМК-20024-КМД</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>мун. Кишинеу, р-н Ботаника, ш. Мунчешть, 801</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>SSM-20033-КМД</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Ремонтная мастерская</t>
   </si>
   <si>
     <t xml:space="preserve"> с. Михайлюки, ул. Мира, д. 39а  </t>
   </si>
   <si>
-    <t xml:space="preserve">СМК-20043-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Контейнеры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО "ТиПиБиеС Продакшин"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СКБ-ВТФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧВТФ-3.00604-СБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Балки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чугуевский р-н, пгт. Малиновка, ул Владимировская, 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООО "Малиновский стеклозавод"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5035401000000_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Склад полуфабрикатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СМК-20047-КМД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Влаштування майданчика для зважування у русі</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "Телеком Украина"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОВ "ТЕРМАСТИЛ ЛСТК"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3445-КМД</t>
+    <t>СМК-20043-КМД</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Контейнеры</t>
+  </si>
+  <si>
+    <t>ООО "ТиПиБиеС Продакшин"</t>
+  </si>
+  <si>
+    <t>СКБ-ВТФ</t>
+  </si>
+  <si>
+    <t>ЧВТФ-3.00604-СБ</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Балки</t>
+  </si>
+  <si>
+    <t>Чугуевский р-н, пгт. Малиновка, ул Владимировская, 10</t>
+  </si>
+  <si>
+    <t>ООО "Малиновский стеклозавод"</t>
+  </si>
+  <si>
+    <t>5035401000000_011</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Склад полуфабрикатов</t>
+  </si>
+  <si>
+    <t>СМК-20047-КМД</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Влаштування майданчика для зважування у русі</t>
+  </si>
+  <si>
+    <t>ТОВ "Телеком Украина"</t>
+  </si>
+  <si>
+    <t>ТОВ "ТЕРМАСТИЛ ЛСТК"</t>
+  </si>
+  <si>
+    <t>3445-КМД</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>ЖД пристройка</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Металлоконструкции</t>
+  </si>
+  <si>
+    <t>ТОВ "Иприс-Профиль"</t>
+  </si>
+  <si>
+    <t>ТОВ "Иприс-профиль"</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ТОВ «ТіПіБіЕеС Продакшн»</t>
+  </si>
+  <si>
+    <t>ТММ</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Балка</t>
+  </si>
+  <si>
+    <t>504.30-1</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Ангар</t>
+  </si>
+  <si>
+    <t>Черниговская обл., Нежинский р-н, с. Безугловка, ул. Заболотная, 24</t>
+  </si>
+  <si>
+    <t>СМК-20050-КМД</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>мун. Кишинеэу, р-н Ботаника, ш. Мунчешть, 801</t>
+  </si>
+  <si>
+    <t>SSM 20048-КМД</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Расширение складских площадей</t>
+  </si>
+  <si>
+    <t>г. Павлоград, ул. Терешкина, 9</t>
+  </si>
+  <si>
+    <t>ООО "БОГАРД БУД"</t>
+  </si>
+  <si>
+    <t>135-КМД</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Дополнительные технологические тракты СМД-1 и СМД-2 участка дробления дробильно-обогатительной фабрики Полтавского ГОК</t>
+  </si>
+  <si>
+    <t>с. Горишние Плавни</t>
+  </si>
+  <si>
+    <t>ТОВ "Феррострой"</t>
+  </si>
+  <si>
+    <t>10/10/2020-1-КМД</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Испытательный стеннд</t>
+  </si>
+  <si>
+    <t>Иприс-профиль</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -533,28 +626,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -575,6 +653,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -585,273 +677,528 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="distributed" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.14"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="6" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="63.75">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -892,49 +1239,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>5</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="15">
         <v>7</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="14">
         <v>8</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="14">
         <v>10</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="14">
         <v>11</v>
       </c>
-      <c r="K5" s="14" t="n">
+      <c r="K5" s="14">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="14">
         <v>13</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="14">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+    <row r="6" spans="1:13" ht="51.75">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -954,20 +1301,20 @@
         <v>20</v>
       </c>
       <c r="H6" s="14"/>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="16">
         <v>43892</v>
       </c>
-      <c r="K6" s="16" t="n">
+      <c r="K6" s="16">
         <v>43921</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+    <row r="7" spans="1:13" ht="51.75">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -987,20 +1334,20 @@
         <v>24</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="16">
         <v>43892</v>
       </c>
-      <c r="K7" s="16" t="n">
+      <c r="K7" s="16">
         <v>43903</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+    <row r="8" spans="1:13" ht="39">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1020,20 +1367,20 @@
         <v>28</v>
       </c>
       <c r="H8" s="14"/>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="14">
         <v>3</v>
       </c>
-      <c r="J8" s="16" t="n">
+      <c r="J8" s="16">
         <v>43863</v>
       </c>
-      <c r="K8" s="16" t="n">
+      <c r="K8" s="16">
         <v>43887</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" s="21" customFormat="true" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="48.75">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1054,17 +1401,17 @@
       <c r="I9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="16" t="n">
+      <c r="J9" s="16">
         <v>43922</v>
       </c>
-      <c r="K9" s="16" t="n">
+      <c r="K9" s="16">
         <v>43972</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+    <row r="10" spans="1:13" ht="24.75">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1087,16 +1434,16 @@
       <c r="I10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="16">
         <v>43922</v>
       </c>
-      <c r="K10" s="16" t="n">
+      <c r="K10" s="16">
         <v>43931</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="24.75">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -1120,17 +1467,17 @@
       <c r="I11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="16">
         <v>44105</v>
       </c>
-      <c r="K11" s="16" t="n">
+      <c r="K11" s="16">
         <v>44106</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+    <row r="12" spans="1:13" ht="51.75">
+      <c r="A12" s="12">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1153,17 +1500,17 @@
       <c r="I12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="16">
         <v>43877</v>
       </c>
-      <c r="K12" s="16" t="n">
+      <c r="K12" s="16">
         <v>43931</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+    <row r="13" spans="1:13" ht="76.5">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1184,17 +1531,17 @@
       <c r="I13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="16">
         <v>43944</v>
       </c>
-      <c r="K13" s="16" t="n">
+      <c r="K13" s="16">
         <v>43947</v>
       </c>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+    <row r="14" spans="1:13" ht="36">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -1217,17 +1564,17 @@
       <c r="I14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="16">
         <v>43923</v>
       </c>
-      <c r="K14" s="16" t="n">
+      <c r="K14" s="16">
         <v>43937</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+    <row r="15" spans="1:13" ht="51.75">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1250,16 +1597,16 @@
       <c r="I15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="16" t="n">
+      <c r="J15" s="16">
         <v>43938</v>
       </c>
-      <c r="K15" s="16" t="n">
+      <c r="K15" s="16">
         <v>43943</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="51.75">
       <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
@@ -1283,16 +1630,16 @@
       <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="16">
         <v>43993</v>
       </c>
-      <c r="K16" s="16" t="n">
+      <c r="K16" s="16">
         <v>44004</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" ht="51.75">
       <c r="A17" s="12" t="s">
         <v>60</v>
       </c>
@@ -1319,13 +1666,13 @@
       <c r="J17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="16" t="n">
+      <c r="K17" s="16">
         <v>44004</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" ht="26.25">
       <c r="A18" s="12" t="s">
         <v>62</v>
       </c>
@@ -1350,13 +1697,13 @@
       <c r="J18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="16" t="n">
+      <c r="K18" s="16">
         <v>44020</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" ht="36">
       <c r="A19" s="12" t="s">
         <v>66</v>
       </c>
@@ -1383,7 +1730,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:13" ht="51.75">
       <c r="A20" s="12" t="s">
         <v>68</v>
       </c>
@@ -1405,16 +1752,16 @@
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="16" t="n">
+      <c r="J20" s="16">
         <v>44014</v>
       </c>
-      <c r="K20" s="16" t="n">
+      <c r="K20" s="16">
         <v>44056</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" ht="77.25">
       <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
@@ -1438,16 +1785,16 @@
       <c r="I21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="16" t="n">
+      <c r="J21" s="16">
         <v>44056</v>
       </c>
-      <c r="K21" s="16" t="n">
+      <c r="K21" s="16">
         <v>44064</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" ht="51.75">
       <c r="A22" s="12" t="s">
         <v>76</v>
       </c>
@@ -1469,16 +1816,16 @@
       <c r="I22" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="16" t="n">
+      <c r="J22" s="16">
         <v>44032</v>
       </c>
-      <c r="K22" s="16" t="n">
+      <c r="K22" s="16">
         <v>44089</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" ht="36">
       <c r="A23" s="12" t="s">
         <v>80</v>
       </c>
@@ -1502,16 +1849,16 @@
       <c r="I23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="16" t="n">
+      <c r="J23" s="16">
         <v>44013</v>
       </c>
-      <c r="K23" s="16" t="n">
+      <c r="K23" s="16">
         <v>44020</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" ht="36">
       <c r="A24" s="12" t="s">
         <v>82</v>
       </c>
@@ -1535,16 +1882,16 @@
       <c r="I24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="16" t="n">
+      <c r="J24" s="16">
         <v>43994</v>
       </c>
-      <c r="K24" s="16" t="n">
+      <c r="K24" s="16">
         <v>44008</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" ht="36">
       <c r="A25" s="12" t="s">
         <v>84</v>
       </c>
@@ -1568,16 +1915,16 @@
       <c r="I25" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="16" t="n">
+      <c r="J25" s="16">
         <v>44046</v>
       </c>
-      <c r="K25" s="16" t="n">
+      <c r="K25" s="16">
         <v>44047</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" ht="36">
       <c r="A26" s="12" t="s">
         <v>87</v>
       </c>
@@ -1601,16 +1948,16 @@
       <c r="I26" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="16" t="n">
+      <c r="J26" s="16">
         <v>44047</v>
       </c>
-      <c r="K26" s="16" t="n">
+      <c r="K26" s="16">
         <v>44060</v>
       </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" ht="36">
       <c r="A27" s="12" t="s">
         <v>89</v>
       </c>
@@ -1634,16 +1981,16 @@
       <c r="I27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="16" t="n">
+      <c r="J27" s="16">
         <v>44075</v>
       </c>
-      <c r="K27" s="16" t="n">
+      <c r="K27" s="16">
         <v>44085</v>
       </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" ht="36">
       <c r="A28" s="12" t="s">
         <v>92</v>
       </c>
@@ -1667,16 +2014,16 @@
       <c r="I28" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="16" t="n">
+      <c r="J28" s="16">
         <v>44107</v>
       </c>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="16">
         <v>44120</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" ht="36.75" customHeight="1">
       <c r="A29" s="12" t="s">
         <v>94</v>
       </c>
@@ -1705,7 +2052,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" ht="25.5">
       <c r="A30" s="12" t="s">
         <v>97</v>
       </c>
@@ -1729,16 +2076,16 @@
       <c r="I30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="16" t="n">
+      <c r="J30" s="16">
         <v>44075</v>
       </c>
-      <c r="K30" s="16" t="n">
+      <c r="K30" s="16">
         <v>44086</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" ht="60.75">
       <c r="A31" s="12" t="s">
         <v>101</v>
       </c>
@@ -1762,16 +2109,16 @@
       <c r="I31" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="16" t="n">
+      <c r="J31" s="16">
         <v>44075</v>
       </c>
-      <c r="K31" s="16" t="n">
+      <c r="K31" s="16">
         <v>44079</v>
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" ht="64.5">
       <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
@@ -1795,16 +2142,16 @@
       <c r="I32" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="16" t="n">
+      <c r="J32" s="16">
         <v>44105</v>
       </c>
-      <c r="K32" s="16" t="n">
+      <c r="K32" s="16">
         <v>44112</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:13" ht="36">
       <c r="A33" s="12" t="s">
         <v>111</v>
       </c>
@@ -1828,16 +2175,16 @@
       <c r="I33" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="16" t="n">
+      <c r="J33" s="16">
         <v>44120</v>
       </c>
-      <c r="K33" s="16" t="n">
+      <c r="K33" s="16">
         <v>44121</v>
       </c>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:13" ht="51.75">
       <c r="A34" s="12" t="s">
         <v>114</v>
       </c>
@@ -1861,16 +2208,16 @@
       <c r="I34" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="16" t="n">
+      <c r="J34" s="16">
         <v>44105</v>
       </c>
-      <c r="K34" s="16" t="n">
+      <c r="K34" s="16">
         <v>44109</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:13" ht="36">
       <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
@@ -1894,16 +2241,16 @@
       <c r="I35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="16" t="n">
+      <c r="J35" s="16">
         <v>44140</v>
       </c>
-      <c r="K35" s="16" t="n">
+      <c r="K35" s="16">
         <v>44145</v>
       </c>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:13" ht="38.25">
       <c r="A36" s="12" t="s">
         <v>119</v>
       </c>
@@ -1927,16 +2274,16 @@
       <c r="I36" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="16" t="n">
+      <c r="J36" s="16">
         <v>44119</v>
       </c>
-      <c r="K36" s="16" t="n">
+      <c r="K36" s="16">
         <v>44151</v>
       </c>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:13" ht="28.5" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>122</v>
       </c>
@@ -1960,16 +2307,16 @@
       <c r="I37" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="16" t="n">
+      <c r="J37" s="16">
         <v>44123</v>
       </c>
-      <c r="K37" s="16" t="n">
+      <c r="K37" s="16">
         <v>44124</v>
       </c>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:13" ht="36">
       <c r="A38" s="12" t="s">
         <v>125</v>
       </c>
@@ -1993,16 +2340,16 @@
       <c r="I38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="16" t="n">
+      <c r="J38" s="16">
         <v>44124</v>
       </c>
-      <c r="K38" s="16" t="n">
+      <c r="K38" s="16">
         <v>44124</v>
       </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:13" ht="51.75">
       <c r="A39" s="12" t="s">
         <v>127</v>
       </c>
@@ -2029,7 +2376,7 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13" ht="51.75">
       <c r="A40" s="12" t="s">
         <v>129</v>
       </c>
@@ -2053,16 +2400,16 @@
       <c r="I40" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="16" t="n">
+      <c r="J40" s="16">
         <v>44137</v>
       </c>
-      <c r="K40" s="16" t="n">
+      <c r="K40" s="16">
         <v>44141</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:13" ht="51.75">
       <c r="A41" s="12" t="s">
         <v>134</v>
       </c>
@@ -2084,16 +2431,16 @@
       <c r="I41" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J41" s="16" t="n">
+      <c r="J41" s="16">
         <v>44137</v>
       </c>
-      <c r="K41" s="16" t="n">
+      <c r="K41" s="16">
         <v>44148</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:13" ht="51.75">
       <c r="A42" s="12" t="s">
         <v>138</v>
       </c>
@@ -2117,16 +2464,16 @@
       <c r="I42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="16" t="n">
+      <c r="J42" s="16">
         <v>44151</v>
       </c>
-      <c r="K42" s="16" t="n">
+      <c r="K42" s="16">
         <v>44154</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:13" ht="51.75">
       <c r="A43" s="12" t="s">
         <v>142</v>
       </c>
@@ -2153,7 +2500,7 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:13" ht="39">
       <c r="A44" s="12" t="s">
         <v>146</v>
       </c>
@@ -2178,7 +2525,7 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:13" ht="64.5">
       <c r="A45" s="12" t="s">
         <v>151</v>
       </c>
@@ -2205,7 +2552,7 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13" ht="51.75">
       <c r="A46" s="12" t="s">
         <v>156</v>
       </c>
@@ -2232,7 +2579,7 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:13" ht="39">
       <c r="A47" s="12" t="s">
         <v>159</v>
       </c>
@@ -2257,18 +2604,273 @@
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
+    <row r="48" spans="1:13" ht="36">
+      <c r="A48" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="1:13" ht="25.5">
+      <c r="A49" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+    </row>
+    <row r="50" spans="1:13" ht="26.25" customHeight="1">
+      <c r="A50" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="1:13" ht="63.75">
+      <c r="A51" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+    </row>
+    <row r="52" spans="1:13" ht="51">
+      <c r="A52" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="1:13" ht="51">
+      <c r="A53" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+    </row>
+    <row r="54" spans="1:13" ht="25.5">
+      <c r="A54" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:13" ht="38.25">
+      <c r="A55" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="1:13" ht="114.75">
+      <c r="A56" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+    </row>
+    <row r="57" spans="1:13" ht="25.5">
+      <c r="A57" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0" right="0" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/welding-journals.xlsx
+++ b/src/main/resources/templates/welding-journals.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
@@ -10,16 +10,11 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="202">
   <si>
     <t>ТОВ "ССМ ЗАВОД"</t>
   </si>
@@ -610,13 +605,28 @@
   </si>
   <si>
     <t>Иприс-профиль</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Строительство производственно-складского зала с торгово-офисными помещениями на ул. Будовляна, 5 в г. Люблин. Исполнение зала В из стальных конструкций</t>
+  </si>
+  <si>
+    <t>Польша, г.Люблин,ул. Будовляна, 5</t>
+  </si>
+  <si>
+    <t>ПТП Криштиан</t>
+  </si>
+  <si>
+    <t>055-2021-КМД</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -666,6 +676,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -735,20 +752,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -829,12 +838,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -913,6 +937,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -947,6 +972,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1122,1747 +1148,1774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G64:G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="6" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="63.75">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A5" s="12">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>4</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>5</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <v>6</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>7</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <v>8</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>10</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>11</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <v>12</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>13</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="51.75">
-      <c r="A6" s="12">
+    <row r="6" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <v>43892</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="13">
         <v>43921</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="51.75">
-      <c r="A7" s="12">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>43892</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="13">
         <v>43903</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="39">
-      <c r="A8" s="12">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
         <v>3</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <v>43863</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>43887</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" s="21" customFormat="1" ht="48.75">
-      <c r="A9" s="12">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="13">
         <v>43922</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="13">
         <v>43972</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.75">
-      <c r="A10" s="12">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>43922</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="13">
         <v>43931</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="24.75">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="13">
         <v>44105</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <v>44106</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="51.75">
-      <c r="A12" s="12">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>43877</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>43931</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="76.5">
-      <c r="A13" s="12">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>43944</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <v>43947</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="36">
-      <c r="A14" s="12">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="13">
         <v>43923</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>43937</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" ht="51.75">
-      <c r="A15" s="12">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="13">
         <v>43938</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="13">
         <v>43943</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="51.75">
-      <c r="A16" s="12" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>43993</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <v>44004</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="51.75">
-      <c r="A17" s="12" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="13">
         <v>44004</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" ht="26.25">
-      <c r="A18" s="12" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="D18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="13">
         <v>44020</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" ht="36">
-      <c r="A19" s="12" t="s">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="D19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="51.75">
-      <c r="A20" s="12" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="16">
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="13">
         <v>44014</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="13">
         <v>44056</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" ht="77.25">
-      <c r="A21" s="12" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="D21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="13">
         <v>44056</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="13">
         <v>44064</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13" ht="51.75">
-      <c r="A22" s="12" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <v>44032</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="13">
         <v>44089</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13" ht="36">
-      <c r="A23" s="12" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="D23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="13">
         <v>44013</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="13">
         <v>44020</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13" ht="36">
-      <c r="A24" s="12" t="s">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="D24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>43994</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="13">
         <v>44008</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13" ht="36">
-      <c r="A25" s="12" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="D25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <v>44046</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="13">
         <v>44047</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13" ht="36">
-      <c r="A26" s="12" t="s">
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="D26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="13">
         <v>44047</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="13">
         <v>44060</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" ht="36">
-      <c r="A27" s="12" t="s">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="D27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="13">
         <v>44075</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="13">
         <v>44085</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="1:13" ht="36">
-      <c r="A28" s="12" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="D28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="11"/>
+      <c r="I28" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="13">
         <v>44107</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="13">
         <v>44120</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="D29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13" ht="25.5">
-      <c r="A30" s="12" t="s">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="13">
         <v>44075</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="13">
         <v>44086</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" ht="60.75">
-      <c r="A31" s="12" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="s">
+      <c r="H31" s="22"/>
+      <c r="I31" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="13">
         <v>44075</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="13">
         <v>44079</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" ht="64.5">
-      <c r="A32" s="12" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="13">
         <v>44105</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="13">
         <v>44112</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" ht="36">
-      <c r="A33" s="12" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="24" t="s">
+      <c r="D33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="13">
         <v>44120</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="13">
         <v>44121</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13" ht="51.75">
-      <c r="A34" s="12" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="12" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="13">
         <v>44105</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="13">
         <v>44109</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" ht="36">
-      <c r="A35" s="12" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12" t="s">
+      <c r="H35" s="11"/>
+      <c r="I35" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="13">
         <v>44140</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="13">
         <v>44145</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13" ht="38.25">
-      <c r="A36" s="12" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="D36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="12" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="13">
         <v>44119</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="13">
         <v>44151</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A37" s="12" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="D37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12" t="s">
+      <c r="H37" s="11"/>
+      <c r="I37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="13">
         <v>44123</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="13">
         <v>44124</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="1:13" ht="36">
-      <c r="A38" s="12" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="D38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="12" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="13">
         <v>44124</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="13">
         <v>44124</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" ht="51.75">
-      <c r="A39" s="12" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="1:13" ht="51.75">
-      <c r="A40" s="12" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="12" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="13">
         <v>44137</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="13">
         <v>44141</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-    </row>
-    <row r="41" spans="1:13" ht="51.75">
-      <c r="A41" s="12" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="12" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="13">
         <v>44137</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="13">
         <v>44148</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-    </row>
-    <row r="42" spans="1:13" ht="51.75">
-      <c r="A42" s="12" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="12" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="13">
         <v>44151</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="13">
         <v>44154</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" ht="51.75">
-      <c r="A43" s="12" t="s">
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-    </row>
-    <row r="44" spans="1:13" ht="39">
-      <c r="A44" s="12" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" ht="64.5">
-      <c r="A45" s="12" t="s">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="1:13" ht="51.75">
-      <c r="A46" s="12" t="s">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="s">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="1:13" ht="39">
-      <c r="A47" s="12" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" ht="39" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="1:13" ht="36">
-      <c r="A48" s="28" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="31" t="s">
+      <c r="D48" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-    </row>
-    <row r="49" spans="1:13" ht="25.5">
-      <c r="A49" s="28" t="s">
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+    </row>
+    <row r="49" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-    </row>
-    <row r="50" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A50" s="28" t="s">
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+    </row>
+    <row r="50" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G50" s="31" t="s">
+      <c r="G50" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-    </row>
-    <row r="51" spans="1:13" ht="63.75">
-      <c r="A51" s="28" t="s">
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+    </row>
+    <row r="51" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-    </row>
-    <row r="52" spans="1:13" ht="51">
-      <c r="A52" s="28" t="s">
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+    </row>
+    <row r="52" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="31" t="s">
+      <c r="G52" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-    </row>
-    <row r="53" spans="1:13" ht="51">
-      <c r="A53" s="28" t="s">
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+    </row>
+    <row r="53" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="31" t="s">
+      <c r="G53" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-    </row>
-    <row r="54" spans="1:13" ht="25.5">
-      <c r="A54" s="28" t="s">
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+    </row>
+    <row r="54" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31" t="s">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-    </row>
-    <row r="55" spans="1:13" ht="38.25">
-      <c r="A55" s="28" t="s">
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+    </row>
+    <row r="55" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="31" t="s">
+      <c r="G55" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-    </row>
-    <row r="56" spans="1:13" ht="114.75">
-      <c r="A56" s="28" t="s">
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+    </row>
+    <row r="56" spans="1:13" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-    </row>
-    <row r="57" spans="1:13" ht="25.5">
-      <c r="A57" s="28" t="s">
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+    </row>
+    <row r="57" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31" t="s">
+      <c r="C57" s="28"/>
+      <c r="D57" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+    </row>
+    <row r="58" spans="1:13" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
